--- a/data/xls/2010-03-01/20100610-EER-rep-CSL-Jan-Mar2010.xlsx
+++ b/data/xls/2010-03-01/20100610-EER-rep-CSL-Jan-Mar2010.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23117"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="120" yWindow="20" windowWidth="18960" windowHeight="11320"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="270">
   <si>
     <r>
       <rPr>
@@ -22,7 +27,7 @@
         <sz val="12"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">SUMMARY OF EVENTS SPONSORED BY MEMBER COMPANIES:  Jan-March 2010</t>
+      <t>SUMMARY OF EVENTS SPONSORED BY MEMBER COMPANIES:  Jan-March 2010</t>
     </r>
   </si>
   <si>
@@ -32,7 +37,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">COMPANY NAME: CSL</t>
+      <t>COMPANY NAME: CSL</t>
     </r>
   </si>
   <si>
@@ -42,7 +47,7 @@
         <sz val="11"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">NUMBER OF EVENTS HELD: 65</t>
+      <t>NUMBER OF EVENTS HELD: 65</t>
     </r>
   </si>
   <si>
@@ -61,7 +66,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">educational content delivered</t>
+      <t>educational content delivered</t>
     </r>
   </si>
   <si>
@@ -71,7 +76,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Venue</t>
+      <t>Venue</t>
     </r>
   </si>
   <si>
@@ -90,7 +95,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of attendees</t>
+      <t>of attendees</t>
     </r>
   </si>
   <si>
@@ -109,7 +114,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">provided</t>
+      <t>provided</t>
     </r>
   </si>
   <si>
@@ -128,7 +133,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">hospitality</t>
+      <t>hospitality</t>
     </r>
   </si>
   <si>
@@ -147,7 +152,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">attendees</t>
+      <t>attendees</t>
     </r>
   </si>
   <si>
@@ -157,16 +162,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Total Cost of Function</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Jan-10</t>
+      <t>Total Cost of Function</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Jan-10</t>
     </r>
   </si>
   <si>
@@ -191,7 +196,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Department.</t>
+      <t>Department.</t>
     </r>
   </si>
   <si>
@@ -208,7 +213,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Alexandra Hospital, Woolloongabba, VIC</t>
+      <t>Alexandra Hospital, Woolloongabba, VIC</t>
     </r>
   </si>
   <si>
@@ -225,7 +230,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars, Neurosurgeons</t>
+      <t>Registrars, Neurosurgeons</t>
     </r>
   </si>
   <si>
@@ -242,34 +247,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">non-alcoholic drinks provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$262</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Feb-10</t>
+      <t>non-alcoholic drinks provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$262</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Feb-10</t>
     </r>
   </si>
   <si>
@@ -286,7 +291,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Influenza.  This event was organised by the Royal Perth Hospital Pharmacy and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Influenza.  This event was organised by the Royal Perth Hospital Pharmacy and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -303,34 +308,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Seminar Room, Perth Hospital; Perth; WA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Pharmacists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">N/A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
+      <t>Seminar Room, Perth Hospital; Perth; WA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Pharmacists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>N/A</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6</t>
     </r>
   </si>
   <si>
@@ -347,7 +352,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $140. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $140. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -372,7 +377,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the hospitality, accommodation or travel.</t>
+      <t>the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -389,7 +394,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Toowoomba; QLD</t>
+      <t>Toowoomba; QLD</t>
     </r>
   </si>
   <si>
@@ -406,16 +411,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">68</t>
+      <t>Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>68</t>
     </r>
   </si>
   <si>
@@ -432,7 +437,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $800. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $800. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -449,7 +454,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Trouble Shooting Around Immunisation Reporting, Pandemic Influenza H1N1 update.  This event was organised by the Ipswich and West Moreton Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Trouble Shooting Around Immunisation Reporting, Pandemic Influenza H1N1 update.  This event was organised by the Ipswich and West Moreton Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -466,16 +471,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Ipswich; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">90</t>
+      <t>Ipswich; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>90</t>
     </r>
   </si>
   <si>
@@ -492,7 +497,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $2000. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $2000. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -509,7 +514,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Update on Pneumococcal Vaccination and Influenza.  This event was organised by the Townsville General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Update on Pneumococcal Vaccination and Influenza.  This event was organised by the Townsville General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -526,16 +531,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">General Practice Meeting Room; Cranbrook; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">33</t>
+      <t>General Practice Meeting Room; Cranbrook; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>33</t>
     </r>
   </si>
   <si>
@@ -552,7 +557,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $180. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $180. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -577,7 +582,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -594,16 +599,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hervey Bay; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">24</t>
+      <t>Hervey Bay; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>24</t>
     </r>
   </si>
   <si>
@@ -620,7 +625,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $270. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $270. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -637,7 +642,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunisation.  This event was organised by the Ballarat and District Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
+      <t>Immunisation.  This event was organised by the Ballarat and District Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -654,7 +659,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital; Ballarat; VIC</t>
+      <t>Hospital; Ballarat; VIC</t>
     </r>
   </si>
   <si>
@@ -671,7 +676,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $1000. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $1000. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -688,7 +693,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Influenza.  This event was organised by the Monash Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Influenza.  This event was organised by the Monash Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -705,16 +710,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">East Bentleigh; VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">60</t>
+      <t>East Bentleigh; VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>60</t>
     </r>
   </si>
   <si>
@@ -739,7 +744,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Neoplasia Conference</t>
+      <t>Neoplasia Conference</t>
     </r>
   </si>
   <si>
@@ -756,7 +761,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Monaco;</t>
+      <t>Monaco;</t>
     </r>
   </si>
   <si>
@@ -773,7 +778,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Practioners</t>
+      <t>Practioners</t>
     </r>
   </si>
   <si>
@@ -790,34 +795,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">non-alcoholic drinks provided.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$80</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$110</t>
+      <t>non-alcoholic drinks provided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$110</t>
     </r>
   </si>
   <si>
@@ -842,7 +847,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Mackay Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>organised by the Mackay Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -859,25 +864,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of General Practice; North Mackay; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Nurses</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">45</t>
+      <t>of General Practice; North Mackay; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Nurses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>45</t>
     </r>
   </si>
   <si>
@@ -894,7 +899,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $670. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $670. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -911,7 +916,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">The treatment of Non Melonoma Skin Cancers. This event was organised by the Molescan Skin Cancer Clinics, A Division of Healthscope Limited and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>The treatment of Non Melonoma Skin Cancers. This event was organised by the Molescan Skin Cancer Clinics, A Division of Healthscope Limited and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -928,25 +933,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">George; Brisbane; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">General Practitioners</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">13</t>
+      <t>George; Brisbane; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>General Practitioners</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>13</t>
     </r>
   </si>
   <si>
@@ -963,7 +968,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $940. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $940. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -988,7 +993,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Meeting</t>
+      <t>Meeting</t>
     </r>
   </si>
   <si>
@@ -1005,16 +1010,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Centre; Perth; WA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Urologists; Registrars</t>
+      <t>Centre; Perth; WA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Urologists; Registrars</t>
     </r>
   </si>
   <si>
@@ -1031,34 +1036,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">with alcoholic &amp; non-alcoholic drinks provided.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$4,950</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">58</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$5,550</t>
+      <t>with alcoholic &amp; non-alcoholic drinks provided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$4,950</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>58</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$5,550</t>
     </r>
   </si>
   <si>
@@ -1083,7 +1088,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Planning for Practices and Seasonal Influenza. This event was organised by the Goulburn Valley Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
+      <t>Planning for Practices and Seasonal Influenza. This event was organised by the Goulburn Valley Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -1100,16 +1105,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Health, Melbourne University; Shepparton; VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">49</t>
+      <t>Health, Melbourne University; Shepparton; VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>49</t>
     </r>
   </si>
   <si>
@@ -1134,7 +1139,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Beach; QLD</t>
+      <t>Beach; QLD</t>
     </r>
   </si>
   <si>
@@ -1151,7 +1156,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $520. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $520. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1168,7 +1173,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Pneumoccocal Vaccine Update.  This event was organised by the GP Links Wide Bay and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Pneumoccocal Vaccine Update.  This event was organised by the GP Links Wide Bay and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1185,16 +1190,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Bay; Bundaberg; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">35</t>
+      <t>Bay; Bundaberg; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>35</t>
     </r>
   </si>
   <si>
@@ -1211,7 +1216,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">The Treatment of Non Melonoma Skin Cancers. This event was organised by the Molescan Skin Cancer Clinics, A Division of Healthscope Limited and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>The Treatment of Non Melonoma Skin Cancers. This event was organised by the Molescan Skin Cancer Clinics, A Division of Healthscope Limited and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1228,16 +1233,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the River; Perth; WA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">18</t>
+      <t>the River; Perth; WA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>18</t>
     </r>
   </si>
   <si>
@@ -1254,7 +1259,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Updates in Immunisation.  This event was organised by the General Practice Association of Geelong and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 8 (CNE) in the RACGP QA&amp;CPD Program.</t>
+      <t>Updates in Immunisation.  This event was organised by the General Practice Association of Geelong and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 8 (CNE) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -1271,16 +1276,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of Geelong; Geelong; VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">62</t>
+      <t>of Geelong; Geelong; VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>62</t>
     </r>
   </si>
   <si>
@@ -1297,7 +1302,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $500. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $500. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1322,7 +1327,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Anaesthetics Department.</t>
+      <t>Anaesthetics Department.</t>
     </r>
   </si>
   <si>
@@ -1339,7 +1344,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Westmead, NSW</t>
+      <t>Hospital, Westmead, NSW</t>
     </r>
   </si>
   <si>
@@ -1356,25 +1361,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Breakfast</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$210</t>
+      <t>Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Breakfast</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$210</t>
     </r>
   </si>
   <si>
@@ -1391,7 +1396,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Intensive Care Department.</t>
+      <t>organised by the Intensive Care Department.</t>
     </r>
   </si>
   <si>
@@ -1408,7 +1413,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Chermside, VIC</t>
+      <t>Hospital, Chermside, VIC</t>
     </r>
   </si>
   <si>
@@ -1425,25 +1430,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Trainee Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$146</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">15</t>
+      <t>Trainee Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$146</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>15</t>
     </r>
   </si>
   <si>
@@ -1460,7 +1465,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">anaesthesia. The event was organised by the Qld branch of the Australia and New Zealand College of Anaesthetists (ANZCA) and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>anaesthesia. The event was organised by the Qld branch of the Australia and New Zealand College of Anaesthetists (ANZCA) and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1485,25 +1490,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">End , QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">n/a</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">30</t>
+      <t>End , QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>n/a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>30</t>
     </r>
   </si>
   <si>
@@ -1520,7 +1525,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $550. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
+      <t>of $550. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1537,7 +1542,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Surgery Deprtament.</t>
+      <t>organised by the Surgery Deprtament.</t>
     </r>
   </si>
   <si>
@@ -1554,7 +1559,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Meadowbrook, VIC</t>
+      <t>Meadowbrook, VIC</t>
     </r>
   </si>
   <si>
@@ -1571,25 +1576,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$182</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">16</t>
+      <t>Registrars, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$182</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>16</t>
     </r>
   </si>
   <si>
@@ -1614,7 +1619,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Department.</t>
+      <t>Department.</t>
     </r>
   </si>
   <si>
@@ -1631,7 +1636,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Women's Hospital, Herston, VIC</t>
+      <t>Women's Hospital, Herston, VIC</t>
     </r>
   </si>
   <si>
@@ -1648,16 +1653,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">alcoholic &amp; non- alcoholic drinks provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$585</t>
+      <t>alcoholic &amp; non- alcoholic drinks provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$585</t>
     </r>
   </si>
   <si>
@@ -1682,7 +1687,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the hospitality, accommodation or travel.</t>
+      <t>the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1699,16 +1704,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Waters Hotel, Coolum, QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Anaesthetists</t>
+      <t>Waters Hotel, Coolum, QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Anaesthetists</t>
     </r>
   </si>
   <si>
@@ -1733,7 +1738,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Department.</t>
+      <t>Department.</t>
     </r>
   </si>
   <si>
@@ -1750,7 +1755,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Fremantle, VIC</t>
+      <t>Hospital, Fremantle, VIC</t>
     </r>
   </si>
   <si>
@@ -1767,16 +1772,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Trainee Registrars, Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$149</t>
+      <t>Trainee Registrars, Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$149</t>
     </r>
   </si>
   <si>
@@ -1793,7 +1798,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Support in Intensive Care (BASIC) training course. The event was organised by the Alfred Hospital Intensive Care Department and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Support in Intensive Care (BASIC) training course. The event was organised by the Alfred Hospital Intensive Care Department and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1810,25 +1815,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Prahran, VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Intensivists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
+      <t>Hospital, Prahran, VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Intensivists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>25</t>
     </r>
   </si>
   <si>
@@ -1845,16 +1850,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $625 for printing of course materials. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Mar-10</t>
+      <t>of $625 for printing of course materials. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Mar-10</t>
     </r>
   </si>
   <si>
@@ -1871,7 +1876,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunistion Update.  This event was organised by the Division of General Practice South and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Immunistion Update.  This event was organised by the Division of General Practice South and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1888,16 +1893,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Centre; Cornelian Bay; TAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">93</t>
+      <t>Centre; Cornelian Bay; TAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>93</t>
     </r>
   </si>
   <si>
@@ -1914,7 +1919,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $910. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $910. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1931,7 +1936,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunistion Update.  This event was organised by the Division of General Practice North West and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Immunistion Update.  This event was organised by the Division of General Practice North West and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1948,16 +1953,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Conference Centre; Launceston; TAS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">59</t>
+      <t>Conference Centre; Launceston; TAS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>59</t>
     </r>
   </si>
   <si>
@@ -1974,7 +1979,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Physiotherapy.  This event was organised by the St George Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Physiotherapy.  This event was organised by the St George Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -1999,7 +2004,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Souci; NSW</t>
+      <t>Souci; NSW</t>
     </r>
   </si>
   <si>
@@ -2016,7 +2021,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $730. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $730. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2033,7 +2038,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunisation Update.  This event was organised by the Dandenong Casey General Practice Association and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Immunisation Update.  This event was organised by the Dandenong Casey General Practice Association and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2050,7 +2055,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Club; Dandenong; VIC</t>
+      <t>Club; Dandenong; VIC</t>
     </r>
   </si>
   <si>
@@ -2067,7 +2072,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $1650. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $1650. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2084,7 +2089,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunisation Update.  This event was organised by the Division of General Practice North and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Immunisation Update.  This event was organised by the Division of General Practice North and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2101,7 +2106,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hotel; Ulverstone; TAS</t>
+      <t>Hotel; Ulverstone; TAS</t>
     </r>
   </si>
   <si>
@@ -2118,7 +2123,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Influenza Vaccination.  This event was organised by the GP Partners Adelaide and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Influenza Vaccination.  This event was organised by the GP Partners Adelaide and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2135,16 +2140,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Adelaide; SA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">26</t>
+      <t>Adelaide; SA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>26</t>
     </r>
   </si>
   <si>
@@ -2161,7 +2166,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $1150. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $1150. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2178,7 +2183,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Pneumococcal and Influenza Vaccintaion, Reporting on Adverse Events.  This event was organised by the Moreton Bay General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Pneumococcal and Influenza Vaccintaion, Reporting on Adverse Events.  This event was organised by the Moreton Bay General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2195,7 +2200,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital; Caboolture; QLD</t>
+      <t>Hospital; Caboolture; QLD</t>
     </r>
   </si>
   <si>
@@ -2212,7 +2217,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $300. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $300. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2229,7 +2234,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Pandemic H1N1 planning for practice and seasonal influenza.  This event was organised by the Melbourne East General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Pandemic H1N1 planning for practice and seasonal influenza.  This event was organised by the Melbourne East General Practice Network and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2254,16 +2259,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">51</t>
+      <t>VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>51</t>
     </r>
   </si>
   <si>
@@ -2280,7 +2285,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $480. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $480. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2297,7 +2302,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">General Practice Network; Redcliffe; QLD</t>
+      <t>General Practice Network; Redcliffe; QLD</t>
     </r>
   </si>
   <si>
@@ -2314,7 +2319,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
+      <t>total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -2331,25 +2336,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Geelong; VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,110</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,270</t>
+      <t>Geelong; VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,110</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,270</t>
     </r>
   </si>
   <si>
@@ -2366,7 +2371,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Gastroenterology.  This event was organised by the St George Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Gastroenterology.  This event was organised by the St George Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2383,7 +2388,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Restaurant; Lugarno; NSW</t>
+      <t>Restaurant; Lugarno; NSW</t>
     </r>
   </si>
   <si>
@@ -2400,7 +2405,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $380. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $380. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2433,7 +2438,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Dubbo Plains Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
+      <t>Dubbo Plains Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 4 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -2450,7 +2455,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Dubbo; NSW</t>
+      <t>Dubbo; NSW</t>
     </r>
   </si>
   <si>
@@ -2467,7 +2472,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Nurses; Pharmacists</t>
+      <t>Nurses; Pharmacists</t>
     </r>
   </si>
   <si>
@@ -2484,7 +2489,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $2010. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $2010. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2509,7 +2514,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">RACGP QA&amp;CPD Program.</t>
+      <t>RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -2526,7 +2531,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Adelaide; SA</t>
+      <t>Adelaide; SA</t>
     </r>
   </si>
   <si>
@@ -2543,34 +2548,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">with alcoholic &amp; non-alcoholic drinks provided.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,950</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">28</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$2,700</t>
+      <t>with alcoholic &amp; non-alcoholic drinks provided.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,950</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>28</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$2,700</t>
     </r>
   </si>
   <si>
@@ -2587,7 +2592,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Vitamin D.  This event was organised by the Ballarat and District Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 2 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
+      <t>Vitamin D.  This event was organised by the Ballarat and District Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel. Allocated total CPD points 2 (CPD Group 2) in the RACGP QA&amp;CPD Program.</t>
     </r>
   </si>
   <si>
@@ -2604,16 +2609,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Court Restaurant; Hurstville; NSW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">12</t>
+      <t>Court Restaurant; Hurstville; NSW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>12</t>
     </r>
   </si>
   <si>
@@ -2630,7 +2635,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $200. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $200. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2655,7 +2660,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Yarra; VIC</t>
+      <t>Yarra; VIC</t>
     </r>
   </si>
   <si>
@@ -2672,7 +2677,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $1110. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $1110. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2689,7 +2694,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $620. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $620. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2706,7 +2711,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Cardiology Update.  This event was organised by the Northern Health and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Cardiology Update.  This event was organised by the Northern Health and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2723,7 +2728,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital; Epping; VIC</t>
+      <t>Hospital; Epping; VIC</t>
     </r>
   </si>
   <si>
@@ -2740,7 +2745,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars; Nurses</t>
+      <t>Registrars; Nurses</t>
     </r>
   </si>
   <si>
@@ -2757,7 +2762,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">speaker to launch new product for heart failure.</t>
+      <t>speaker to launch new product for heart failure.</t>
     </r>
   </si>
   <si>
@@ -2774,7 +2779,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">function room; East Melbourne; VIC</t>
+      <t>function room; East Melbourne; VIC</t>
     </r>
   </si>
   <si>
@@ -2791,7 +2796,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Failure Nurses</t>
+      <t>Failure Nurses</t>
     </r>
   </si>
   <si>
@@ -2808,25 +2813,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 3 delegate(s). Travel for 2 delegate(s).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$7,220</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">64</t>
+      <t>with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 3 delegate(s). Travel for 2 delegate(s).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$7,220</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>64</t>
     </r>
   </si>
   <si>
@@ -2843,7 +2848,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$12,727, room hire $409, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,752</t>
+      <t>$12,727, room hire $409, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,752</t>
     </r>
   </si>
   <si>
@@ -2860,7 +2865,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Restaurant; North Adelaide; SA</t>
+      <t>Restaurant; North Adelaide; SA</t>
     </r>
   </si>
   <si>
@@ -2877,25 +2882,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 1 delegate(s). Travel for 1 delegate(s).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$3,650</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">32</t>
+      <t>with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 1 delegate(s). Travel for 1 delegate(s).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$3,650</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>32</t>
     </r>
   </si>
   <si>
@@ -2920,7 +2925,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$15,107 and travel &amp; accomodation for guest speakers $5,601</t>
+      <t>$15,107 and travel &amp; accomodation for guest speakers $5,601</t>
     </r>
   </si>
   <si>
@@ -2937,7 +2942,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunistion Update.  This event was organised by the North East Valley Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Immunistion Update.  This event was organised by the North East Valley Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2954,16 +2959,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Meeting House; Bundoora; VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">111</t>
+      <t>Meeting House; Bundoora; VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>111</t>
     </r>
   </si>
   <si>
@@ -2980,7 +2985,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $1500. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
+      <t>of $1500. CSL was not responsible for organising the educational content, hospitality, accomodation or travel.</t>
     </r>
   </si>
   <si>
@@ -2997,25 +3002,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of WA; Crawley; WA</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,850</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">23</t>
+      <t>of WA; Crawley; WA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,850</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>23</t>
     </r>
   </si>
   <si>
@@ -3032,7 +3037,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$12,727 room hire $364, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,706.</t>
+      <t>$12,727 room hire $364, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,706.</t>
     </r>
   </si>
   <si>
@@ -3057,7 +3062,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3074,7 +3079,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital; Noosaville; QLD</t>
+      <t>Hospital; Noosaville; QLD</t>
     </r>
   </si>
   <si>
@@ -3091,7 +3096,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Influenza Vaccination Update.  This event was organised by the Adelaide Hills Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Influenza Vaccination Update.  This event was organised by the Adelaide Hills Division of General Practice and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3116,7 +3121,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Barker; SA</t>
+      <t>Barker; SA</t>
     </r>
   </si>
   <si>
@@ -3133,25 +3138,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Brisbane; QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$4,590</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">47</t>
+      <t>Brisbane; QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$4,590</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>47</t>
     </r>
   </si>
   <si>
@@ -3168,7 +3173,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$12,727, room hire $227, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,527.</t>
+      <t>$12,727, room hire $227, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,527.</t>
     </r>
   </si>
   <si>
@@ -3185,7 +3190,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hotel; Sydney; NSW</t>
+      <t>Hotel; Sydney; NSW</t>
     </r>
   </si>
   <si>
@@ -3202,25 +3207,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 3 delegate(s). Travel for 4 delegate(s).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$8,020</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">65</t>
+      <t>with alcoholic &amp; non-alcoholic drinks provided. Accommodation for 1 night/s for 3 delegate(s). Travel for 4 delegate(s).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$8,020</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>65</t>
     </r>
   </si>
   <si>
@@ -3237,7 +3242,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">$12,727, room hire $7,090, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,714.</t>
+      <t>$12,727, room hire $7,090, equipment hire and event organisation fee $15,107 and travel &amp; accomodation for guest speakers $5,714.</t>
     </r>
   </si>
   <si>
@@ -3262,7 +3267,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Immunology Department.</t>
+      <t>Immunology Department.</t>
     </r>
   </si>
   <si>
@@ -3279,25 +3284,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Darlinghurst, NSW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Immunologists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$356</t>
+      <t>Hospital, Darlinghurst, NSW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Immunologists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$356</t>
     </r>
   </si>
   <si>
@@ -3314,7 +3319,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the Intensive Care Department.</t>
+      <t>the Intensive Care Department.</t>
     </r>
   </si>
   <si>
@@ -3339,25 +3344,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars,Registrars</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$84</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">10</t>
+      <t>Registrars,Registrars</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>10</t>
     </r>
   </si>
   <si>
@@ -3374,7 +3379,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Anaesthetics Department.</t>
+      <t>organised by the Anaesthetics Department.</t>
     </r>
   </si>
   <si>
@@ -3399,7 +3404,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars</t>
+      <t>Registrars</t>
     </r>
   </si>
   <si>
@@ -3416,16 +3421,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">non-alcoholic drinks provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$71</t>
+      <t>non-alcoholic drinks provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$71</t>
     </r>
   </si>
   <si>
@@ -3450,7 +3455,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Cardiothoracic Department.</t>
+      <t>Cardiothoracic Department.</t>
     </r>
   </si>
   <si>
@@ -3467,7 +3472,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">surgeons, Advanced Trainee Registrars, Registrars</t>
+      <t>surgeons, Advanced Trainee Registrars, Registrars</t>
     </r>
   </si>
   <si>
@@ -3484,7 +3489,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Intensive Care Department.</t>
+      <t>Intensive Care Department.</t>
     </r>
   </si>
   <si>
@@ -3501,7 +3506,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Southport, VIC</t>
+      <t>Hospital, Southport, VIC</t>
     </r>
   </si>
   <si>
@@ -3518,16 +3523,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">non-alcoholic drinks provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$60</t>
+      <t>non-alcoholic drinks provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$60</t>
     </r>
   </si>
   <si>
@@ -3544,7 +3549,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the Haematology Society of Australia &amp; New Zealand (HSANZ) on treatment of haematological complications. The event was organised by the HSANZ and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>the Haematology Society of Australia &amp; New Zealand (HSANZ) on treatment of haematological complications. The event was organised by the HSANZ and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3561,7 +3566,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hotel Circular Quay, Sydney, NSW</t>
+      <t>Hotel Circular Quay, Sydney, NSW</t>
     </r>
   </si>
   <si>
@@ -3578,7 +3583,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Registrars</t>
+      <t>Registrars</t>
     </r>
   </si>
   <si>
@@ -3595,25 +3600,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">alcoholic &amp; non- alcoholic drinks provided</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$1,402</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">50</t>
+      <t>alcoholic &amp; non- alcoholic drinks provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$1,402</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>50</t>
     </r>
   </si>
   <si>
@@ -3630,7 +3635,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $2003.  CSL was not responsible for organising the educational content, hospitality, accommodation or travel</t>
+      <t>of $2003.  CSL was not responsible for organising the educational content, hospitality, accommodation or travel</t>
     </r>
   </si>
   <si>
@@ -3655,7 +3660,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Department.</t>
+      <t>Department.</t>
     </r>
   </si>
   <si>
@@ -3672,16 +3677,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Bankstown, NSW</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$120</t>
+      <t>Hospital, Bankstown, NSW</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$120</t>
     </r>
   </si>
   <si>
@@ -3698,25 +3703,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Medicine Deprtament.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$400</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">40</t>
+      <t>organised by the Medicine Deprtament.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>40</t>
     </r>
   </si>
   <si>
@@ -3733,34 +3738,34 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">organised by the Haematology Department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">Haematologists</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$190</t>
+      <t>organised by the Haematology Department.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Haematologists</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$190</t>
     </r>
   </si>
   <si>
@@ -3777,7 +3782,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Meeting of the Qld branch of the Haematology Society of Australia &amp; New Zealand (HSANZ). The event was organised by HSANZ (Qld) and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Meeting of the Qld branch of the Haematology Society of Australia &amp; New Zealand (HSANZ). The event was organised by HSANZ (Qld) and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3802,16 +3807,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Brisbane, Qld</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">100</t>
+      <t>Brisbane, Qld</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>100</t>
     </r>
   </si>
   <si>
@@ -3828,7 +3833,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $2750. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
+      <t>of $2750. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3845,7 +3850,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">defects organised by the Immunology Department.</t>
+      <t>defects organised by the Immunology Department.</t>
     </r>
   </si>
   <si>
@@ -3862,16 +3867,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Hospital, Parkville, VIC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$324</t>
+      <t>Hospital, Parkville, VIC</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$324</t>
     </r>
   </si>
   <si>
@@ -3888,25 +3893,25 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">injury organised by the Intensive Care Department.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">$179</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">17</t>
+      <t>injury organised by the Intensive Care Department.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>$179</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>17</t>
     </r>
   </si>
   <si>
@@ -3923,7 +3928,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">the Australia New Zealand Intensive Care Society (ANZICS) Clinical Trials Group on Clinical Trials in Intensive Care. The event was organised by ANZICS and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>the Australia New Zealand Intensive Care Society (ANZICS) Clinical Trials Group on Clinical Trials in Intensive Care. The event was organised by ANZICS and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3940,16 +3945,16 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Noosa, QLD</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">190</t>
+      <t>Noosa, QLD</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>190</t>
     </r>
   </si>
   <si>
@@ -3966,7 +3971,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $15000. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
+      <t>of $15000. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -3983,7 +3988,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Intravenous Immunoglobulins. The event was organised by the Immunology Department and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
+      <t>Intravenous Immunoglobulins. The event was organised by the Immunology Department and CSL was not responsible for inviting the attendees or organising the educational content, the hospitality, accommodation or travel.</t>
     </r>
   </si>
   <si>
@@ -4000,7 +4005,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Western Sydney, Campbelltown, NSW</t>
+      <t>Western Sydney, Campbelltown, NSW</t>
     </r>
   </si>
   <si>
@@ -4017,7 +4022,7 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">Dermatologists</t>
+      <t>Dermatologists</t>
     </r>
   </si>
   <si>
@@ -4034,24 +4039,117 @@
         <sz val="10"/>
         <rFont val="Arial"/>
       </rPr>
-      <t xml:space="preserve">of $5000. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
+      <t>of $5000. CSL was not responsible for organising the educational content, hospitality, accommodation or travel.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Description of function including duration of educational content delivered</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Venue</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Professional Status  of
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Attendees</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Hospitality Provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total Cost of Hospitality (Excl GST)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Number of Attendee s - number only</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>Total Cost of Function (Excl GST)</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color rgb="#000000"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4073,8 +4171,13 @@
         <fgColor rgb="FFFFFF99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACC00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -4134,37 +4237,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fillId="2" borderId="0" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="3" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="4" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="4" borderId="2" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="4" borderId="3" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="4" borderId="4" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fillId="2" borderId="1" fontId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4459,444 +4581,408 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" customWidth="1" width="54.444444"/>
-    <col min="2" max="2" customWidth="1" width="18.888889"/>
-    <col min="3" max="3" customWidth="1" width="24.666667"/>
-    <col min="4" max="4" customWidth="1" width="20.222222"/>
-    <col min="5" max="5" customWidth="1" width="16.444444"/>
-    <col min="6" max="6" customWidth="1" width="13.555556"/>
-    <col min="7" max="7" customWidth="1" width="56.666667"/>
-    <col min="8" max="8" customWidth="1" width="2.888889"/>
+    <col min="1" max="1" width="54.5" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="56.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="0"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" s="0" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0"/>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" spans="1:8" ht="24" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" spans="1:8" ht="12" customHeight="1">
-      <c r="A5" s="4" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="86" customHeight="1">
+      <c r="A4" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="12" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" spans="1:8" ht="61" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="61" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" spans="1:8" ht="12" customHeight="1">
-      <c r="A7" s="4" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="12" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" spans="1:8" ht="73" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="73" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9" spans="1:8" ht="85" customHeight="1">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="85" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="8" t="s">
+      <c r="D9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10" spans="1:8" ht="97" customHeight="1">
-      <c r="A10" s="7" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="97" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="0"/>
-    </row>
-    <row r="11" spans="1:8" ht="85" customHeight="1">
-      <c r="A11" s="7" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="85" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="0"/>
-    </row>
-    <row r="12" spans="1:8" ht="85" customHeight="1">
-      <c r="A12" s="7" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="85" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="0"/>
-    </row>
-    <row r="13" spans="1:8" ht="97" customHeight="1">
-      <c r="A13" s="7" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="97" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="0"/>
-    </row>
-    <row r="14" spans="1:8" ht="73" customHeight="1">
-      <c r="A14" s="7" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="73" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="0"/>
-    </row>
-    <row r="15" spans="1:8" ht="36" customHeight="1">
-      <c r="A15" s="7" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="36" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="0"/>
-    </row>
-    <row r="16" spans="1:8" ht="97" customHeight="1">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="97" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="D16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="0"/>
-    </row>
-    <row r="17" spans="1:8" ht="97" customHeight="1">
-      <c r="A17" s="7" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="97" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="8" t="s">
+      <c r="D17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="0"/>
-    </row>
-    <row r="18" spans="1:8" ht="48" customHeight="1">
-      <c r="A18" s="7" t="s">
+    </row>
+    <row r="18" spans="1:7" ht="48" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="0"/>
-    </row>
-    <row r="19" spans="1:8" ht="122" customHeight="1">
-      <c r="A19" s="7" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="122" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="8" t="s">
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="0"/>
-    </row>
-    <row r="20" spans="1:8" ht="97" customHeight="1">
-      <c r="A20" s="7" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="97" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="8" t="s">
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" spans="1:8" ht="24" customHeight="1">
+    </row>
+    <row r="21" spans="1:7" ht="24" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -4918,429 +5004,410 @@
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" spans="1:8" ht="73" customHeight="1">
-      <c r="A22" s="7" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="73" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="8" t="s">
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H22" s="0"/>
-    </row>
-    <row r="23" spans="1:8" ht="97" customHeight="1">
-      <c r="A23" s="7" t="s">
+    </row>
+    <row r="23" spans="1:7" ht="97" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="0"/>
-    </row>
-    <row r="24" spans="1:8" ht="110" customHeight="1">
-      <c r="A24" s="7" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="110" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="D24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H24" s="0"/>
-    </row>
-    <row r="25" spans="1:8" ht="48" customHeight="1">
-      <c r="A25" s="7" t="s">
+    </row>
+    <row r="25" spans="1:7" ht="48" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="0"/>
-    </row>
-    <row r="26" spans="1:8" ht="36" customHeight="1">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="36" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="0"/>
-    </row>
-    <row r="27" spans="1:8" ht="85" customHeight="1">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="85" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="D27" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="H27" s="0"/>
-    </row>
-    <row r="28" spans="1:8" ht="36" customHeight="1">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" spans="1:7" ht="36" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="0"/>
-    </row>
-    <row r="29" spans="1:8" ht="48" customHeight="1">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="29" spans="1:7" ht="48" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H29" s="0"/>
-    </row>
-    <row r="30" spans="1:8" ht="85" customHeight="1">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="30" spans="1:7" ht="85" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="D30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="0"/>
-    </row>
-    <row r="31" spans="1:8" ht="48" customHeight="1">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="31" spans="1:7" ht="48" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H31" s="0"/>
-    </row>
-    <row r="32" spans="1:8" ht="85" customHeight="1">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="32" spans="1:7" ht="85" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="D32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H32" s="0"/>
-    </row>
-    <row r="33" spans="1:8" ht="12" customHeight="1">
-      <c r="A33" s="4" t="s">
+    </row>
+    <row r="33" spans="1:7" ht="12" customHeight="1">
+      <c r="A33" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="0"/>
-    </row>
-    <row r="34" spans="1:8" ht="73" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" ht="73" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H34" s="0"/>
-    </row>
-    <row r="35" spans="1:8" ht="73" customHeight="1">
-      <c r="A35" s="7" t="s">
+    </row>
+    <row r="35" spans="1:7" ht="73" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="D35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="G35" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H35" s="0"/>
-    </row>
-    <row r="36" spans="1:8" ht="73" customHeight="1">
-      <c r="A36" s="7" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="73" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="D36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="H36" s="0"/>
-    </row>
-    <row r="37" spans="1:8" ht="85" customHeight="1">
-      <c r="A37" s="7" t="s">
+    </row>
+    <row r="37" spans="1:7" ht="85" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="H37" s="0"/>
-    </row>
-    <row r="38" spans="1:8" ht="73" customHeight="1">
-      <c r="A38" s="7" t="s">
+    </row>
+    <row r="38" spans="1:7" ht="73" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="D38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="0"/>
-    </row>
-    <row r="39" spans="1:8" ht="73" customHeight="1">
-      <c r="A39" s="7" t="s">
+    </row>
+    <row r="39" spans="1:7" ht="73" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="D39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="H39" s="0"/>
-    </row>
-    <row r="40" spans="1:8" ht="24" customHeight="1">
+    </row>
+    <row r="40" spans="1:7" ht="24" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -5362,345 +5429,330 @@
       <c r="G40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" spans="1:8" ht="97" customHeight="1">
-      <c r="A41" s="7" t="s">
+    </row>
+    <row r="41" spans="1:7" ht="97" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F41" s="8" t="s">
+      <c r="D41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H41" s="0"/>
-    </row>
-    <row r="42" spans="1:8" ht="97" customHeight="1">
-      <c r="A42" s="7" t="s">
+    </row>
+    <row r="42" spans="1:7" ht="97" customHeight="1">
+      <c r="A42" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F42" s="8" t="s">
+      <c r="D42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="0"/>
-    </row>
-    <row r="43" spans="1:8" ht="97" customHeight="1">
-      <c r="A43" s="7" t="s">
+    </row>
+    <row r="43" spans="1:7" ht="97" customHeight="1">
+      <c r="A43" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F43" s="8" t="s">
+      <c r="D43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="H43" s="0"/>
-    </row>
-    <row r="44" spans="1:8" ht="48" customHeight="1">
-      <c r="A44" s="7" t="s">
+    </row>
+    <row r="44" spans="1:7" ht="48" customHeight="1">
+      <c r="A44" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E44" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="0"/>
-    </row>
-    <row r="45" spans="1:8" ht="73" customHeight="1">
-      <c r="A45" s="7" t="s">
+    </row>
+    <row r="45" spans="1:7" ht="73" customHeight="1">
+      <c r="A45" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F45" s="8" t="s">
+      <c r="D45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="H45" s="0"/>
-    </row>
-    <row r="46" spans="1:8" ht="110" customHeight="1">
-      <c r="A46" s="7" t="s">
+    </row>
+    <row r="46" spans="1:7" ht="110" customHeight="1">
+      <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="D46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="H46" s="0"/>
-    </row>
-    <row r="47" spans="1:8" ht="48" customHeight="1">
-      <c r="A47" s="7" t="s">
+    </row>
+    <row r="47" spans="1:7" ht="48" customHeight="1">
+      <c r="A47" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E47" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" spans="1:8" ht="97" customHeight="1">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="48" spans="1:7" ht="97" customHeight="1">
+      <c r="A48" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="8" t="s">
+      <c r="D48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H48" s="0"/>
-    </row>
-    <row r="49" spans="1:8" ht="73" customHeight="1">
-      <c r="A49" s="7" t="s">
+    </row>
+    <row r="49" spans="1:7" ht="73" customHeight="1">
+      <c r="A49" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F49" s="8" t="s">
+      <c r="D49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H49" s="0"/>
-    </row>
-    <row r="50" spans="1:8" ht="97" customHeight="1">
-      <c r="A50" s="7" t="s">
+    </row>
+    <row r="50" spans="1:7" ht="97" customHeight="1">
+      <c r="A50" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="8" t="s">
+      <c r="D50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F50" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H50" s="0"/>
-    </row>
-    <row r="51" spans="1:8" ht="73" customHeight="1">
-      <c r="A51" s="7" t="s">
+    </row>
+    <row r="51" spans="1:7" ht="73" customHeight="1">
+      <c r="A51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F51" s="8" t="s">
+      <c r="D51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="H51" s="0"/>
-    </row>
-    <row r="52" spans="1:8" ht="73" customHeight="1">
-      <c r="A52" s="7" t="s">
+    </row>
+    <row r="52" spans="1:7" ht="73" customHeight="1">
+      <c r="A52" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="8" t="s">
+      <c r="D52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H52" s="0"/>
-    </row>
-    <row r="53" spans="1:8" ht="110" customHeight="1">
-      <c r="A53" s="7" t="s">
+    </row>
+    <row r="53" spans="1:7" ht="110" customHeight="1">
+      <c r="A53" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="H53" s="0"/>
-    </row>
-    <row r="54" spans="1:8" ht="110" customHeight="1">
-      <c r="A54" s="7" t="s">
+    </row>
+    <row r="54" spans="1:7" ht="110" customHeight="1">
+      <c r="A54" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H54" s="0"/>
-    </row>
-    <row r="55" spans="1:8" ht="24" customHeight="1">
+    </row>
+    <row r="55" spans="1:7" ht="24" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -5722,465 +5774,445 @@
       <c r="G55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H55" s="0"/>
-    </row>
-    <row r="56" spans="1:8" ht="85" customHeight="1">
-      <c r="A56" s="7" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="85" customHeight="1">
+      <c r="A56" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="8" t="s">
+      <c r="D56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="H56" s="0"/>
-    </row>
-    <row r="57" spans="1:8" ht="48" customHeight="1">
-      <c r="A57" s="7" t="s">
+    </row>
+    <row r="57" spans="1:7" ht="48" customHeight="1">
+      <c r="A57" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E57" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="H57" s="0"/>
-    </row>
-    <row r="58" spans="1:8" ht="97" customHeight="1">
-      <c r="A58" s="7" t="s">
+    </row>
+    <row r="58" spans="1:7" ht="97" customHeight="1">
+      <c r="A58" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F58" s="8" t="s">
+      <c r="D58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H58" s="0"/>
-    </row>
-    <row r="59" spans="1:8" ht="85" customHeight="1">
-      <c r="A59" s="7" t="s">
+    </row>
+    <row r="59" spans="1:7" ht="85" customHeight="1">
+      <c r="A59" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H59" s="0"/>
-    </row>
-    <row r="60" spans="1:8" ht="48" customHeight="1">
-      <c r="A60" s="7" t="s">
+    </row>
+    <row r="60" spans="1:7" ht="48" customHeight="1">
+      <c r="A60" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H60" s="0"/>
-    </row>
-    <row r="61" spans="1:8" ht="110" customHeight="1">
-      <c r="A61" s="7" t="s">
+    </row>
+    <row r="61" spans="1:7" ht="110" customHeight="1">
+      <c r="A61" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="H61" s="0"/>
-    </row>
-    <row r="62" spans="1:8" ht="48" customHeight="1">
-      <c r="A62" s="7" t="s">
+    </row>
+    <row r="62" spans="1:7" ht="48" customHeight="1">
+      <c r="A62" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E62" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H62" s="0"/>
-    </row>
-    <row r="63" spans="1:8" ht="36" customHeight="1">
-      <c r="A63" s="7" t="s">
+    </row>
+    <row r="63" spans="1:7" ht="36" customHeight="1">
+      <c r="A63" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H63" s="0"/>
-    </row>
-    <row r="64" spans="1:8" ht="48" customHeight="1">
-      <c r="A64" s="7" t="s">
+    </row>
+    <row r="64" spans="1:7" ht="48" customHeight="1">
+      <c r="A64" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E64" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="H64" s="0"/>
-    </row>
-    <row r="65" spans="1:8" ht="48" customHeight="1">
-      <c r="A65" s="7" t="s">
+    </row>
+    <row r="65" spans="1:7" ht="48" customHeight="1">
+      <c r="A65" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="H65" s="0"/>
-    </row>
-    <row r="66" spans="1:8" ht="48" customHeight="1">
-      <c r="A66" s="7" t="s">
+    </row>
+    <row r="66" spans="1:7" ht="48" customHeight="1">
+      <c r="A66" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="H66" s="0"/>
-    </row>
-    <row r="67" spans="1:8" ht="97" customHeight="1">
-      <c r="A67" s="7" t="s">
+    </row>
+    <row r="67" spans="1:7" ht="97" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="H67" s="0"/>
-    </row>
-    <row r="68" spans="1:8" ht="48" customHeight="1">
-      <c r="A68" s="7" t="s">
+    </row>
+    <row r="68" spans="1:7" ht="48" customHeight="1">
+      <c r="A68" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E68" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H68" s="0"/>
-    </row>
-    <row r="69" spans="1:8" ht="36" customHeight="1">
-      <c r="A69" s="7" t="s">
+    </row>
+    <row r="69" spans="1:7" ht="36" customHeight="1">
+      <c r="A69" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="H69" s="0"/>
-    </row>
-    <row r="70" spans="1:8" ht="61" customHeight="1">
-      <c r="A70" s="7" t="s">
+    </row>
+    <row r="70" spans="1:7" ht="61" customHeight="1">
+      <c r="A70" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E70" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H70" s="0"/>
-    </row>
-    <row r="71" spans="1:8" ht="85" customHeight="1">
-      <c r="A71" s="7" t="s">
+    </row>
+    <row r="71" spans="1:7" ht="85" customHeight="1">
+      <c r="A71" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="D71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F71" s="8" t="s">
+      <c r="D71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="H71" s="0"/>
-    </row>
-    <row r="72" spans="1:8" ht="36" customHeight="1">
-      <c r="A72" s="7" t="s">
+    </row>
+    <row r="72" spans="1:7" ht="36" customHeight="1">
+      <c r="A72" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E72" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="G72" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="H72" s="0"/>
-    </row>
-    <row r="73" spans="1:8" ht="48" customHeight="1">
-      <c r="A73" s="7" t="s">
+    </row>
+    <row r="73" spans="1:7" ht="48" customHeight="1">
+      <c r="A73" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="H73" s="0"/>
-    </row>
-    <row r="74" spans="1:8" ht="97" customHeight="1">
-      <c r="A74" s="7" t="s">
+    </row>
+    <row r="74" spans="1:7" ht="97" customHeight="1">
+      <c r="A74" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" s="8" t="s">
+      <c r="D74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="H74" s="0"/>
-    </row>
-    <row r="75" spans="1:8" ht="24" customHeight="1">
+    </row>
+    <row r="75" spans="1:7" ht="24" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -6202,31 +6234,29 @@
       <c r="G75" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H75" s="0"/>
-    </row>
-    <row r="76" spans="1:8" ht="73" customHeight="1">
-      <c r="A76" s="7" t="s">
+    </row>
+    <row r="76" spans="1:7" ht="73" customHeight="1">
+      <c r="A76" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F76" s="8" t="s">
+      <c r="D76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F76" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="H76" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6235,5 +6265,10 @@
     <mergeCell ref="A33:G33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>